--- a/Apps/Demo/Sales/Invoice/index.template.xlsx
+++ b/Apps/Demo/Sales/Invoice/index.template.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
